--- a/medicine/Maladies infectieuses/Pandémie_de_Covid-19_au_Ghana/Pandémie_de_Covid-19_au_Ghana.xlsx
+++ b/medicine/Maladies infectieuses/Pandémie_de_Covid-19_au_Ghana/Pandémie_de_Covid-19_au_Ghana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Ghana</t>
+          <t>Pandémie_de_Covid-19_au_Ghana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 au Ghana démarre officiellement le 12 mars 2020. À la date du 7 octobre 2022, le bilan est de 1 459 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Ghana</t>
+          <t>Pandémie_de_Covid-19_au_Ghana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier cas a été constaté le 12 mars 2020. La barre des 10 cas a été atteinte le 19 mars, celle des 100 cas le 26 mars, celle des 1 000 cas le 19 avril, celle des 10 000 cas le 9 juin 2020, et celle des 100 000 cas le 23 juillet 2021.
 Le premier décès est intervenu le 21 mars, le dixième le 24 avril, le centième le 27 juin 2020 et le 1 000ème le 27 août 2021.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Ghana</t>
+          <t>Pandémie_de_Covid-19_au_Ghana</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Ghana</t>
+          <t>Pandémie_de_Covid-19_au_Ghana</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,6 +587,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -578,7 +596,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Ghana</t>
+          <t>Pandémie_de_Covid-19_au_Ghana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -596,7 +614,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pandémie de Covid-19 en Afrique</t>
         </is>
